--- a/data/Variables LFS, SES y CPS.xlsx
+++ b/data/Variables LFS, SES y CPS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="114">
   <si>
     <t>Nombre variable</t>
   </si>
@@ -356,9 +356,6 @@
     <t>specifies whether a person who worked during the previous calendar year was self-employed, an employee in private industry or the public sector, in the armed forces, or worked without pay in a family business or farm.  Respondents were classified by the job that they held for the longest time during the previous year</t>
   </si>
   <si>
-    <t>FULLPART, WHYPTLY</t>
-  </si>
-  <si>
     <t>Worked full or part time last year, reason for working part time</t>
   </si>
   <si>
@@ -372,6 +369,16 @@
   </si>
   <si>
     <t>No es tan fácil matchear calificaciones con otros clasificadores. Hay que hacer un cruce con SOC (USA) y luego uno con el ISCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FULLPART, WHYPTLY, WKSTAT
+</t>
+  </si>
+  <si>
+    <t>https://usa.ipums.org/usa/volii/occ_ind.shtml</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/cps/cpsaat18b.htm</t>
   </si>
 </sst>
 </file>
@@ -504,7 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -550,6 +557,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -905,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="A1:F20"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -940,55 +950,55 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="54.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1000,15 +1010,15 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24" t="s">
         <v>82</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -1016,17 +1026,17 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1040,7 +1050,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1056,7 +1066,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="4" t="s">
         <v>51</v>
       </c>
@@ -1070,7 +1080,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="4" t="s">
         <v>67</v>
       </c>
@@ -1084,7 +1094,7 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1102,7 +1112,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1118,7 +1128,7 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="10" t="s">
         <v>72</v>
       </c>
@@ -1132,7 +1142,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1148,7 +1158,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
       <c r="D18" s="6"/>
@@ -1244,10 +1254,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1260,8 +1270,8 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="4" t="s">
         <v>41</v>
       </c>
@@ -1276,8 +1286,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="4" t="s">
         <v>40</v>
       </c>
@@ -1288,7 +1298,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="51.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1304,31 +1314,31 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1340,7 +1350,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1356,7 +1366,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
@@ -1370,7 +1380,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="4" t="s">
         <v>67</v>
       </c>
@@ -1382,7 +1392,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1400,7 +1410,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1416,7 +1426,7 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="10" t="s">
         <v>69</v>
       </c>
@@ -1428,7 +1438,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -1442,7 +1452,7 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
@@ -1450,7 +1460,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -1468,7 +1478,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="10" t="s">
         <v>35</v>
       </c>
@@ -1482,7 +1492,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="10" t="s">
         <v>36</v>
       </c>
@@ -1496,7 +1506,7 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="10" t="s">
         <v>37</v>
       </c>
@@ -1527,14 +1537,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A2:A8"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1543,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1580,59 +1590,59 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="54.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
@@ -1640,37 +1650,37 @@
         <v>88</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="23"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
@@ -1684,7 +1694,7 @@
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -1698,7 +1708,7 @@
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="12" t="s">
         <v>51</v>
       </c>
@@ -1710,7 +1720,7 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="12" t="s">
         <v>67</v>
       </c>
@@ -1724,7 +1734,7 @@
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="12" t="s">
         <v>7</v>
       </c>
@@ -1738,10 +1748,10 @@
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="32" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -1754,32 +1764,32 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="10" t="s">
-        <v>106</v>
+      <c r="A16" s="28"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="12" t="s">
         <v>48</v>
       </c>
@@ -1829,7 +1839,17 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/Variables LFS, SES y CPS.xlsx
+++ b/data/Variables LFS, SES y CPS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="117">
   <si>
     <t>Nombre variable</t>
   </si>
@@ -379,6 +379,15 @@
   </si>
   <si>
     <t>https://www.bls.gov/cps/cpsaat18b.htm</t>
+  </si>
+  <si>
+    <t>Nombre variable IPUMS</t>
+  </si>
+  <si>
+    <t>Nombre variable en ASEC-CPS</t>
+  </si>
+  <si>
+    <t>NOEMP</t>
   </si>
 </sst>
 </file>
@@ -560,6 +569,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -589,18 +610,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -950,55 +959,55 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" ht="54.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1010,15 +1019,15 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28" t="s">
         <v>82</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -1026,17 +1035,17 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1050,7 +1059,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1066,7 +1075,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="4" t="s">
         <v>51</v>
       </c>
@@ -1080,7 +1089,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>67</v>
       </c>
@@ -1094,7 +1103,7 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1112,7 +1121,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1128,7 +1137,7 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="10" t="s">
         <v>72</v>
       </c>
@@ -1142,7 +1151,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1158,7 +1167,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
       <c r="D18" s="6"/>
@@ -1199,11 +1208,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="F2:F6"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D8:D9"/>
@@ -1211,6 +1215,11 @@
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1254,10 +1263,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1270,8 +1279,8 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="4" t="s">
         <v>41</v>
       </c>
@@ -1286,8 +1295,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="4" t="s">
         <v>40</v>
       </c>
@@ -1298,7 +1307,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="51.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1314,31 +1323,31 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1350,7 +1359,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1366,7 +1375,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
@@ -1380,7 +1389,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>67</v>
       </c>
@@ -1392,7 +1401,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1410,7 +1419,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1426,7 +1435,7 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="10" t="s">
         <v>69</v>
       </c>
@@ -1438,7 +1447,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -1452,7 +1461,7 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
@@ -1460,7 +1469,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -1478,7 +1487,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="10" t="s">
         <v>35</v>
       </c>
@@ -1492,7 +1501,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="10" t="s">
         <v>36</v>
       </c>
@@ -1506,7 +1515,7 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="10" t="s">
         <v>37</v>
       </c>
@@ -1537,14 +1546,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A2:A8"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1553,23 +1562,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="35.25" customWidth="1"/>
+    <col min="3" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="23.875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -1577,7 +1586,7 @@
         <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1588,61 +1597,71 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="G1" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="22" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="1:6" ht="54.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="G2" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" ht="54.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
       <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
@@ -1659,28 +1678,28 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="28" t="s">
+    <row r="8" spans="1:7" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="24"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="24"/>
+    <row r="9" spans="1:7" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+    <row r="10" spans="1:7" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
       <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
@@ -1693,8 +1712,8 @@
       </c>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -1707,8 +1726,8 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
       <c r="B12" s="12" t="s">
         <v>51</v>
       </c>
@@ -1719,8 +1738,8 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+    <row r="13" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="12" t="s">
         <v>67</v>
       </c>
@@ -1733,8 +1752,8 @@
       </c>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+    <row r="14" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
       <c r="B14" s="12" t="s">
         <v>7</v>
       </c>
@@ -1747,8 +1766,8 @@
       </c>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="32" t="s">
@@ -1763,8 +1782,8 @@
       </c>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:6" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+    <row r="16" spans="1:7" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
       <c r="B16" s="33"/>
       <c r="C16" s="17" t="s">
         <v>111</v>
@@ -1778,7 +1797,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="10" t="s">
         <v>72</v>
       </c>
@@ -1789,7 +1808,7 @@
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="12" t="s">
         <v>48</v>
       </c>
@@ -1853,13 +1872,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="B15:B16"/>
+  <mergeCells count="14">
+    <mergeCell ref="G2:G6"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="F2:F6"/>
@@ -1867,6 +1881,12 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A22" r:id="rId1"/>
